--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/AB/20/seed2/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/AB/20/seed2/result_data_KNN.xlsx
@@ -471,7 +471,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-22.124</v>
+        <v>-21.88</v>
       </c>
       <c r="B3" t="n">
         <v>4.03</v>
@@ -625,7 +625,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-21.958</v>
+        <v>-21.695</v>
       </c>
       <c r="B14" t="n">
         <v>4.04</v>
@@ -642,7 +642,7 @@
         <v>-22.78</v>
       </c>
       <c r="B15" t="n">
-        <v>4.470000000000001</v>
+        <v>5.792</v>
       </c>
       <c r="C15" t="n">
         <v>-13.12</v>
@@ -653,7 +653,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-22.302</v>
+        <v>-22.181</v>
       </c>
       <c r="B16" t="n">
         <v>3.96</v>
@@ -723,10 +723,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-20.616</v>
+        <v>-21.204</v>
       </c>
       <c r="B21" t="n">
-        <v>8.654</v>
+        <v>7.292</v>
       </c>
       <c r="C21" t="n">
         <v>-13.13</v>
@@ -740,7 +740,7 @@
         <v>-20.06</v>
       </c>
       <c r="B22" t="n">
-        <v>6.596000000000001</v>
+        <v>7.290999999999999</v>
       </c>
       <c r="C22" t="n">
         <v>-15.07</v>
@@ -751,7 +751,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-20.636</v>
+        <v>-20.812</v>
       </c>
       <c r="B23" t="n">
         <v>7.87</v>
@@ -768,7 +768,7 @@
         <v>-20.85</v>
       </c>
       <c r="B24" t="n">
-        <v>6.038</v>
+        <v>5.513</v>
       </c>
       <c r="C24" t="n">
         <v>-10.44</v>
@@ -779,7 +779,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-21.748</v>
+        <v>-21.589</v>
       </c>
       <c r="B25" t="n">
         <v>5.23</v>
@@ -793,7 +793,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-20.258</v>
+        <v>-21.083</v>
       </c>
       <c r="B26" t="n">
         <v>6.56</v>
@@ -810,7 +810,7 @@
         <v>-21.86</v>
       </c>
       <c r="B27" t="n">
-        <v>5.42</v>
+        <v>6.44</v>
       </c>
       <c r="C27" t="n">
         <v>-11.92</v>
@@ -824,7 +824,7 @@
         <v>-21.74</v>
       </c>
       <c r="B28" t="n">
-        <v>5.286</v>
+        <v>5.583000000000001</v>
       </c>
       <c r="C28" t="n">
         <v>-11.8</v>
@@ -835,7 +835,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-21.216</v>
+        <v>-21.52</v>
       </c>
       <c r="B29" t="n">
         <v>7.52</v>
@@ -936,7 +936,7 @@
         <v>-18.53</v>
       </c>
       <c r="B36" t="n">
-        <v>7.808</v>
+        <v>6.356</v>
       </c>
       <c r="C36" t="n">
         <v>-10.09</v>
@@ -978,7 +978,7 @@
         <v>-18.76</v>
       </c>
       <c r="B39" t="n">
-        <v>7.544</v>
+        <v>6.609</v>
       </c>
       <c r="C39" t="n">
         <v>-10.58</v>
@@ -989,7 +989,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-20.59</v>
+        <v>-20.706</v>
       </c>
       <c r="B40" t="n">
         <v>10.75</v>
@@ -1062,7 +1062,7 @@
         <v>-22.15</v>
       </c>
       <c r="B45" t="n">
-        <v>5.654000000000001</v>
+        <v>5.832</v>
       </c>
       <c r="C45" t="n">
         <v>-11</v>
@@ -1104,7 +1104,7 @@
         <v>-21.86</v>
       </c>
       <c r="B48" t="n">
-        <v>5.62</v>
+        <v>5.544</v>
       </c>
       <c r="C48" t="n">
         <v>-10.86</v>
@@ -1118,7 +1118,7 @@
         <v>-22.14</v>
       </c>
       <c r="B49" t="n">
-        <v>6.818000000000001</v>
+        <v>6.470000000000001</v>
       </c>
       <c r="C49" t="n">
         <v>-12.11</v>
@@ -1160,7 +1160,7 @@
         <v>-21.69</v>
       </c>
       <c r="B52" t="n">
-        <v>5.286</v>
+        <v>5.968000000000001</v>
       </c>
       <c r="C52" t="n">
         <v>-14.35</v>
@@ -1171,10 +1171,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-20.518</v>
+        <v>-20.623</v>
       </c>
       <c r="B53" t="n">
-        <v>7.008</v>
+        <v>7.706999999999999</v>
       </c>
       <c r="C53" t="n">
         <v>-12.98</v>
@@ -1188,7 +1188,7 @@
         <v>-22.23</v>
       </c>
       <c r="B54" t="n">
-        <v>5.024000000000001</v>
+        <v>5.077000000000001</v>
       </c>
       <c r="C54" t="n">
         <v>-13.87</v>
@@ -1227,10 +1227,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-21.752</v>
+        <v>-22.053</v>
       </c>
       <c r="B57" t="n">
-        <v>5.164</v>
+        <v>5.720000000000001</v>
       </c>
       <c r="C57" t="n">
         <v>-15.01</v>
@@ -1255,7 +1255,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-22.436</v>
+        <v>-22.437</v>
       </c>
       <c r="B59" t="n">
         <v>4.58</v>
@@ -1339,7 +1339,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>-21.166</v>
+        <v>-21.529</v>
       </c>
       <c r="B65" t="n">
         <v>6.69</v>
@@ -1395,7 +1395,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.652</v>
+        <v>-21.476</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1412,7 +1412,7 @@
         <v>-21.91</v>
       </c>
       <c r="B70" t="n">
-        <v>4.664</v>
+        <v>5.029999999999999</v>
       </c>
       <c r="C70" t="n">
         <v>-9.9</v>
@@ -1426,7 +1426,7 @@
         <v>-21.28</v>
       </c>
       <c r="B71" t="n">
-        <v>4.664</v>
+        <v>5.457000000000001</v>
       </c>
       <c r="C71" t="n">
         <v>-9.93</v>
@@ -1535,7 +1535,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-21.51</v>
+        <v>-21.285</v>
       </c>
       <c r="B79" t="n">
         <v>8.949999999999999</v>
@@ -1591,7 +1591,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-21.938</v>
+        <v>-21.979</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
@@ -1636,7 +1636,7 @@
         <v>-22.27</v>
       </c>
       <c r="B86" t="n">
-        <v>4.996</v>
+        <v>4.937</v>
       </c>
       <c r="C86" t="n">
         <v>-14.09</v>
@@ -1650,7 +1650,7 @@
         <v>-23.05</v>
       </c>
       <c r="B87" t="n">
-        <v>4.442</v>
+        <v>4.901999999999999</v>
       </c>
       <c r="C87" t="n">
         <v>-15.19</v>
@@ -1678,7 +1678,7 @@
         <v>-22.69</v>
       </c>
       <c r="B89" t="n">
-        <v>4.722</v>
+        <v>4.759</v>
       </c>
       <c r="C89" t="n">
         <v>-14.65</v>
@@ -1703,7 +1703,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-21.034</v>
+        <v>-21.033</v>
       </c>
       <c r="B91" t="n">
         <v>7.49</v>
@@ -1731,7 +1731,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-21.398</v>
+        <v>-21.533</v>
       </c>
       <c r="B93" t="n">
         <v>4.28</v>
@@ -1829,7 +1829,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-22.382</v>
+        <v>-22.368</v>
       </c>
       <c r="B100" t="n">
         <v>4.73</v>
@@ -1846,7 +1846,7 @@
         <v>-21.4</v>
       </c>
       <c r="B101" t="n">
-        <v>5.074</v>
+        <v>5.279000000000001</v>
       </c>
       <c r="C101" t="n">
         <v>-15.77</v>
@@ -1871,7 +1871,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>-22.032</v>
+        <v>-22.055</v>
       </c>
       <c r="B103" t="n">
         <v>5.09</v>
